--- a/resource/SpacesWColours.xlsx
+++ b/resource/SpacesWColours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temp2015\OneDrive - University College Dublin\College\Year 5\SoftwareEng\Project\Code\gameoflife\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2915447A-8400-421F-ACB9-F6B02B55775C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9C8947BC-AE91-4AD0-897B-1C547D4A7791}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{2915447A-8400-421F-ACB9-F6B02B55775C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{302A09BF-EEE7-4609-ADCF-301FBCC487FB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" xr2:uid="{76940089-184E-4799-9FE6-578B5E059973}"/>
   </bookViews>
@@ -48,72 +48,30 @@
     <t>38_8_0</t>
   </si>
   <si>
-    <t>38_4_0</t>
-  </si>
-  <si>
     <t>34_4_0</t>
   </si>
   <si>
-    <t>39_6_0</t>
-  </si>
-  <si>
     <t>33_4_0</t>
   </si>
   <si>
-    <t>115_4_33</t>
-  </si>
-  <si>
     <t>114_4_0</t>
   </si>
   <si>
-    <t>40_5_0</t>
-  </si>
-  <si>
-    <t>41_4_0</t>
-  </si>
-  <si>
-    <t>42_9_0</t>
-  </si>
-  <si>
     <t>31_3_0</t>
   </si>
   <si>
     <t>32_4_0</t>
   </si>
   <si>
-    <t>113_4_0</t>
-  </si>
-  <si>
-    <t>43_3_0</t>
-  </si>
-  <si>
     <t>30_4_0</t>
   </si>
   <si>
     <t>112_4_0</t>
   </si>
   <si>
-    <t>44_4_0</t>
-  </si>
-  <si>
     <t>29_15_0</t>
   </si>
   <si>
-    <t>111_3_0</t>
-  </si>
-  <si>
-    <t>45_13_116</t>
-  </si>
-  <si>
-    <t>46_4_0</t>
-  </si>
-  <si>
-    <t>47_5_0</t>
-  </si>
-  <si>
-    <t>48_4_0</t>
-  </si>
-  <si>
     <t>49_4_0</t>
   </si>
   <si>
@@ -129,66 +87,27 @@
     <t>116_4_0</t>
   </si>
   <si>
-    <t>51_3_0</t>
-  </si>
-  <si>
     <t>27_4_0</t>
   </si>
   <si>
     <t>109_4_0</t>
   </si>
   <si>
-    <t>117_8_0</t>
-  </si>
-  <si>
-    <t>52_4_0</t>
-  </si>
-  <si>
     <t>26_12_106</t>
   </si>
   <si>
     <t>106_4_0</t>
   </si>
   <si>
-    <t>107_4_0</t>
-  </si>
-  <si>
     <t>108_4_0</t>
   </si>
   <si>
-    <t>118_9_0</t>
-  </si>
-  <si>
-    <t>124_14_53</t>
-  </si>
-  <si>
     <t>53_4_0</t>
   </si>
   <si>
-    <t>54_6_0</t>
-  </si>
-  <si>
-    <t>55_4_0</t>
-  </si>
-  <si>
     <t>25_4_0</t>
   </si>
   <si>
-    <t>119_7_0</t>
-  </si>
-  <si>
-    <t>120_8_0</t>
-  </si>
-  <si>
-    <t>121_5_0</t>
-  </si>
-  <si>
-    <t>122_7_0</t>
-  </si>
-  <si>
-    <t>123_7_0</t>
-  </si>
-  <si>
     <t>56_4_0</t>
   </si>
   <si>
@@ -201,30 +120,15 @@
     <t>22_6_0</t>
   </si>
   <si>
-    <t>57_7_0</t>
-  </si>
-  <si>
     <t>21_4_0</t>
   </si>
   <si>
-    <t>77_4_0</t>
-  </si>
-  <si>
-    <t>76_5_0</t>
-  </si>
-  <si>
     <t>75_4_0</t>
   </si>
   <si>
     <t>74_4_0</t>
   </si>
   <si>
-    <t>58_4_0</t>
-  </si>
-  <si>
-    <t>90_16_0</t>
-  </si>
-  <si>
     <t>89_4_0</t>
   </si>
   <si>
@@ -234,27 +138,15 @@
     <t>73_4_0</t>
   </si>
   <si>
-    <t>59_9_0</t>
-  </si>
-  <si>
     <t>19_4_0</t>
   </si>
   <si>
     <t>88_4_0</t>
   </si>
   <si>
-    <t>79_3_0</t>
-  </si>
-  <si>
-    <t>71_4_0</t>
-  </si>
-  <si>
     <t>72_4_0</t>
   </si>
   <si>
-    <t>60_3_0</t>
-  </si>
-  <si>
     <t>15_4_0</t>
   </si>
   <si>
@@ -270,81 +162,30 @@
     <t>87_4_0</t>
   </si>
   <si>
-    <t>80_4_0</t>
-  </si>
-  <si>
-    <t>70_3_0</t>
-  </si>
-  <si>
-    <t>61_7_0</t>
-  </si>
-  <si>
     <t>14_11_0</t>
   </si>
   <si>
-    <t>86_4_0</t>
-  </si>
-  <si>
-    <t>81_6_0</t>
-  </si>
-  <si>
-    <t>69_4_0</t>
-  </si>
-  <si>
-    <t>68_9_0</t>
-  </si>
-  <si>
-    <t>62_15_0</t>
-  </si>
-  <si>
     <t>13_4_0</t>
   </si>
   <si>
-    <t>85_4_0</t>
-  </si>
-  <si>
-    <t>82_4_0</t>
-  </si>
-  <si>
     <t>67_4_0</t>
   </si>
   <si>
-    <t>63_4_0</t>
-  </si>
-  <si>
-    <t>84_3_0</t>
-  </si>
-  <si>
-    <t>84_9_0</t>
-  </si>
-  <si>
     <t>83_4_0</t>
   </si>
   <si>
     <t>66_4_0</t>
   </si>
   <si>
-    <t>65_4_0</t>
-  </si>
-  <si>
-    <t>64_6_0</t>
-  </si>
-  <si>
     <t>11_4_0</t>
   </si>
   <si>
     <t>10_4_0</t>
   </si>
   <si>
-    <t>104_4_0</t>
-  </si>
-  <si>
     <t>103_4_0</t>
   </si>
   <si>
-    <t>102_10_0</t>
-  </si>
-  <si>
     <t>101_4_0</t>
   </si>
   <si>
@@ -372,12 +213,6 @@
     <t>9_6_0</t>
   </si>
   <si>
-    <t>105_4_4</t>
-  </si>
-  <si>
-    <t>93_4_0</t>
-  </si>
-  <si>
     <t>8_5_0</t>
   </si>
   <si>
@@ -396,15 +231,6 @@
     <t>2_4_0</t>
   </si>
   <si>
-    <t>1_1_3</t>
-  </si>
-  <si>
-    <t>91_2_0</t>
-  </si>
-  <si>
-    <t>92_4_0</t>
-  </si>
-  <si>
     <t>12_3_0</t>
   </si>
   <si>
@@ -412,6 +238,180 @@
   </si>
   <si>
     <t>7_3_0</t>
+  </si>
+  <si>
+    <t>1_1_0</t>
+  </si>
+  <si>
+    <t>39_4_0</t>
+  </si>
+  <si>
+    <t>40_6_0</t>
+  </si>
+  <si>
+    <t>41_5_0</t>
+  </si>
+  <si>
+    <t>42_4_0</t>
+  </si>
+  <si>
+    <t>43_9_0</t>
+  </si>
+  <si>
+    <t>44_3_0</t>
+  </si>
+  <si>
+    <t>45_4_0</t>
+  </si>
+  <si>
+    <t>46_13_116</t>
+  </si>
+  <si>
+    <t>47_4_0</t>
+  </si>
+  <si>
+    <t>48_5_0</t>
+  </si>
+  <si>
+    <t>51_4_0</t>
+  </si>
+  <si>
+    <t>52_3_0</t>
+  </si>
+  <si>
+    <t>54_4_0</t>
+  </si>
+  <si>
+    <t>55_6_0</t>
+  </si>
+  <si>
+    <t>57_4_0</t>
+  </si>
+  <si>
+    <t>58_7_0</t>
+  </si>
+  <si>
+    <t>59_4_0</t>
+  </si>
+  <si>
+    <t>60_9_0</t>
+  </si>
+  <si>
+    <t>61_3_0</t>
+  </si>
+  <si>
+    <t>62_7_0</t>
+  </si>
+  <si>
+    <t>63_15_0</t>
+  </si>
+  <si>
+    <t>64_4_0</t>
+  </si>
+  <si>
+    <t>65_6_0</t>
+  </si>
+  <si>
+    <t>68_4_0</t>
+  </si>
+  <si>
+    <t>69_9_0</t>
+  </si>
+  <si>
+    <t>70_4_0</t>
+  </si>
+  <si>
+    <t>71_3_0</t>
+  </si>
+  <si>
+    <t>76_4_0</t>
+  </si>
+  <si>
+    <t>77_5_0</t>
+  </si>
+  <si>
+    <t>79_4_0</t>
+  </si>
+  <si>
+    <t>80_3_0</t>
+  </si>
+  <si>
+    <t>81_4_0</t>
+  </si>
+  <si>
+    <t>82_6_0</t>
+  </si>
+  <si>
+    <t>84_4_0</t>
+  </si>
+  <si>
+    <t>85_9_0</t>
+  </si>
+  <si>
+    <t>86_3_0</t>
+  </si>
+  <si>
+    <t>90_4_0</t>
+  </si>
+  <si>
+    <t>91_4_0</t>
+  </si>
+  <si>
+    <t>92_16_0</t>
+  </si>
+  <si>
+    <t>93_2_0</t>
+  </si>
+  <si>
+    <t>102_4_0</t>
+  </si>
+  <si>
+    <t>104_10_0</t>
+  </si>
+  <si>
+    <t>105_4_0</t>
+  </si>
+  <si>
+    <t>107_4_4</t>
+  </si>
+  <si>
+    <t>111_4_0</t>
+  </si>
+  <si>
+    <t>113_3_0</t>
+  </si>
+  <si>
+    <t>115_4_0</t>
+  </si>
+  <si>
+    <t>117_4_33</t>
+  </si>
+  <si>
+    <t>118_4_0</t>
+  </si>
+  <si>
+    <t>119_8_0</t>
+  </si>
+  <si>
+    <t>120_9_0</t>
+  </si>
+  <si>
+    <t>121_7_0</t>
+  </si>
+  <si>
+    <t>122_8_0</t>
+  </si>
+  <si>
+    <t>123_5_0</t>
+  </si>
+  <si>
+    <t>124_7_0</t>
+  </si>
+  <si>
+    <t>125_7_0</t>
+  </si>
+  <si>
+    <t>126_14_53</t>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D563147-FE62-4C9D-BBBF-2BF4707B5371}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -1014,25 +1014,25 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
@@ -1067,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
         <v>0</v>
@@ -1380,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
@@ -1459,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="P13" t="s">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="R13" t="s">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="M14" t="s">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="P14" t="s">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="R14" t="s">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -1648,28 +1648,28 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M15" t="s">
         <v>0</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
         <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="R15" t="s">
         <v>0</v>
@@ -1680,16 +1680,16 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -1704,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s">
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="O16" t="s">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="R16" t="s">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -1760,28 +1760,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="M17" t="s">
         <v>0</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s">
         <v>0</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R17" t="s">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="K18" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
         <v>0</v>
@@ -1831,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="R18" t="s">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M19" t="s">
         <v>0</v>
@@ -1887,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R19" t="s">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -1969,37 +1969,37 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="P21" t="s">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="P22" t="s">
         <v>0</v>
@@ -2072,28 +2072,28 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="P23" t="s">
         <v>0</v>

--- a/resource/SpacesWColours.xlsx
+++ b/resource/SpacesWColours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temp2015\OneDrive - University College Dublin\College\Year 5\SoftwareEng\Project\Code\gameoflife\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_30f9\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{2915447A-8400-421F-ACB9-F6B02B55775C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{302A09BF-EEE7-4609-ADCF-301FBCC487FB}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{2915447A-8400-421F-ACB9-F6B02B55775C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5A3B994F-C63B-4DDE-BDAC-652FEF35494E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" xr2:uid="{76940089-184E-4799-9FE6-578B5E059973}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <t>105_4_0</t>
   </si>
   <si>
-    <t>107_4_4</t>
-  </si>
-  <si>
     <t>111_4_0</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>126_14_53</t>
+  </si>
+  <si>
+    <t>107_4_5</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>82</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="O11" t="s">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
